--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joeyz\source\repos\SpartanTrader9\SpartanTrader9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joeyzect\source\repos\jyl2fb\SpartanTrader\SpartanTrader10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303CC36-8C45-4F41-B469-42187AFED2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{6CF626AA-64A8-4AAD-8B16-7A85FCF9A466}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -21,9 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="DateLine">Dashboard!$A$1</definedName>
+    <definedName name="SecondsCell">Dashboard!$F$21</definedName>
     <definedName name="TeamIDCell">Dashboard!$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>Stock Market</t>
   </si>
@@ -247,17 +247,20 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>--</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,8 +359,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -429,12 +445,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -471,6 +496,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,17 +514,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -498,12 +523,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -581,6 +615,54 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -727,17 +809,17 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13A3AB2DF190D214B5019698171B1D64DD8681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1E2A52455132D914AEE1AEF2144BD19AEA9CE1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2117"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6244"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6218"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -747,14 +829,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1818A3A8A1BA671426E1B206184EE4BFD9C941"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="22AE137DF231F5242212B9B62458710E26B702"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3069"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="459"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -764,7 +846,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1454BFB5E1D645141091B73211A51887DA7C71"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A737A9013AE31342143AAC332FEB1D70166A3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -781,13 +863,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BBCC80AD153C4144421923510F58B2602C731"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="475CE45464FC5C44EC1491CD403B214C11B264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1358"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -798,14 +880,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A18C20641A72C1401B18C5C1A90A56B754661"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84E0CECCD8B11684AA8882828679A4649A6238"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1623"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -815,36 +897,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12486F748194FB14E891ADBE158DFF48F524B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9DF148E8B9C34E949E39BB769715A2AAD5B239"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1358"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1E2A52455132D914AEE1AEF2144BD19AEA9CE1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13A3AB2DF190D214B5019698171B1D64DD8681"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6456"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2037"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="6403"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C443C73C2139424511282E223BA9D59E01A72"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -861,36 +960,19 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C443C73C2139424511282E223BA9D59E01A72"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12486F748194FB14E891ADBE158DFF48F524B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9DF148E8B9C34E949E39BB769715A2AAD5B239"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1341"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="776"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -900,14 +982,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84E0CECCD8B11684AA8882828679A4649A6238"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A18C20641A72C1401B18C5C1A90A56B754661"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1517"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="758"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -917,14 +999,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="475CE45464FC5C44EC1491CD403B214C11B264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BBCC80AD153C4144421923510F58B2602C731"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1358"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -934,14 +1016,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A737A9013AE31342143AAC332FEB1D70166A3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1454BFB5E1D645141091B73211A51887DA7C71"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -951,14 +1033,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="22AE137DF231F5242212B9B62458710E26B702"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1818A3A8A1BA671426E1B206184EE4BFD9C941"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3069"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="459"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -968,14 +1050,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B9CFAB0817D4614E371BA261C76ECA0C6DA41"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B41DF30A103CB1433018E231B7416FB5ED861"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3069"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="494"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2937"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -991,8 +1073,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6456"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6218"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1002,20 +1084,383 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B41DF30A103CB1433018E231B7416FB5ED861"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B9CFAB0817D4614E371BA261C76ECA0C6DA41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3069"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="494"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2937"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AV$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AV$5:$AV$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AW$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AW$5:$AW$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AX$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AX$5:$AX$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$AY$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$AY$5:$AY$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="421373240"/>
+        <c:axId val="421369712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="421373240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421369712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421369712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421373240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1100,7 +1545,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D466-4BA0-8136-D3C3301191E1}"/>
             </c:ext>
@@ -1142,7 +1587,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D466-4BA0-8136-D3C3301191E1}"/>
             </c:ext>
@@ -1184,7 +1629,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D466-4BA0-8136-D3C3301191E1}"/>
             </c:ext>
@@ -1199,11 +1644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="996639712"/>
-        <c:axId val="1053095456"/>
+        <c:axId val="423037936"/>
+        <c:axId val="423035976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="996639712"/>
+        <c:axId val="423037936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053095456"/>
+        <c:crossAx val="423035976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1253,7 +1698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053095456"/>
+        <c:axId val="423035976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996639712"/>
+        <c:crossAx val="423037936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1349,14 +1794,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1391,8 +1836,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1489,7 +1934,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B871-4251-87C1-9D3DE691DE6B}"/>
             </c:ext>
@@ -1543,7 +1988,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B871-4251-87C1-9D3DE691DE6B}"/>
             </c:ext>
@@ -1597,7 +2042,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B871-4251-87C1-9D3DE691DE6B}"/>
             </c:ext>
@@ -1613,11 +2058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="996639712"/>
-        <c:axId val="1053095456"/>
+        <c:axId val="423038328"/>
+        <c:axId val="423035584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="996639712"/>
+        <c:axId val="423038328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053095456"/>
+        <c:crossAx val="423035584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053095456"/>
+        <c:axId val="423035584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +2163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="996639712"/>
+        <c:crossAx val="423038328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,14 +2208,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1885,6 +2330,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2917,6 +3402,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2924,15 +3925,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2942,7 +3943,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2986,15 +3987,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>82550</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>590550</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3004,7 +4005,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3048,15 +4049,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>539750</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3066,7 +4067,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3110,15 +4111,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>641350</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3128,7 +4129,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3174,13 +4175,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3190,7 +4191,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3236,11 +4237,11 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>577850</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -3252,7 +4253,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3296,7 +4297,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -3304,7 +4305,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3314,7 +4315,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3360,13 +4361,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3376,7 +4377,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3420,15 +4421,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3438,7 +4439,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3490,7 +4491,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3500,7 +4501,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3544,15 +4545,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>615950</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3562,7 +4563,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3606,13 +4607,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -3624,7 +4625,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3668,13 +4669,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>107950</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>596900</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -3686,7 +4687,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3736,9 +4737,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>508000</xdr:colOff>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3748,7 +4749,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3793,14 +4794,14 @@
         <xdr:from>
           <xdr:col>15</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3810,7 +4811,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB541D-4CF7-4DDA-B363-D444372BF1B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB541D-4CF7-4DDA-B363-D444372BF1B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3830,27 +4831,16 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -3860,6 +4850,36 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309561</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3870,15 +4890,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>120650</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3888,7 +4908,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3932,13 +4952,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>368300</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>234950</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3950,7 +4970,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4007,7 +5027,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +5063,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,157 +5087,170 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5C79A99-4A55-4A3C-9829-26DB59FF7D74}" name="AcquiredLO" displayName="AcquiredLO" ref="R4:T6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="AcquiredLO" displayName="AcquiredLO" ref="R4:T6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{208F2EA7-751C-4233-B285-4414091C74A2}" name="Column1" headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{0212C2D9-6166-4A74-91A8-C6924905F58F}" name="Column2" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{58523E05-327A-40B2-A61B-7C8B71DCE08A}" name="Column3" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="25" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1CB80DB9-7A4A-4297-803F-11B40F68BF51}" name="SP500LO" displayName="SP500LO" ref="R2:T6" totalsRowShown="0">
-  <autoFilter ref="R2:T6" xr:uid="{70A63708-58FB-4545-9FCA-48EBCFB06326}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B380890-F320-4758-914F-2218FBE56820}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{FB2D1110-ADC3-41B6-8239-9BF38016F04A}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{9E9A15CF-7E1D-4DAB-A14F-877A1BBE195F}" name="Column3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OptionsLO" displayName="OptionsLO" ref="I2:P6" totalsRowShown="0">
+  <autoFilter ref="I2:P6"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{140CE20E-E5B3-41A9-B8F2-553BC1D0972E}" name="StockMarketLO" displayName="StockMarketLO" ref="B2:G6" totalsRowShown="0">
-  <autoFilter ref="B2:G6" xr:uid="{3338198A-B43F-41C0-9663-125647B2205E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="SP500LO" displayName="SP500LO" ref="R2:T6" totalsRowShown="0">
+  <autoFilter ref="R2:T6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StockMarketLO" displayName="StockMarketLO" ref="B2:G6" totalsRowShown="0">
+  <autoFilter ref="B2:G6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D850FCAC-3B4F-4CC8-843C-9EA269A59064}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{3D8C4CB6-E045-40F1-AD25-D4B7F7292A6D}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{3C2B3EF7-CB12-404C-9FE4-AC41AA93D494}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{0DF44881-A683-4D29-A421-66F1291FB1FE}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{3A05671C-DE5A-4190-8999-874A31725827}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{1E0C2FB1-E514-4B23-B2AB-9E4D7BA2E811}" name="Column6"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{419C08A7-18D5-427B-B926-858B45532784}" name="InitialLO" displayName="InitialLO" ref="V4:X6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="InitialLO" displayName="InitialLO" ref="V4:X6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{926083B8-0AA2-4C4B-A51C-864DB3B5BCC0}" name="Column1" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{CE73B18E-ABC8-4C73-90C7-B2552B9599DB}" name="Column2" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{73D679FE-6742-42C4-A757-FDC7C689A311}" name="Column3" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="19" dataDxfId="18"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="17" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{397779C3-DB6B-4433-AE13-B4512A952387}" name="StockDataToChartLO" displayName="StockDataToChartLO" ref="AA2:AC8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="AA2:AC8" xr:uid="{89215E07-FB85-4844-852A-CEEF20FEA487}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D0137D59-72EF-4DBF-8D27-92862172A2F9}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4FD51B76-BE04-4FB6-90FD-A41D1CE2D519}" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{63A178E0-C313-46B9-9255-E5261B69053A}" name="Column3" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="TELO" displayName="TELO" ref="AV4:AY11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="AV4:AY11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="13"/>
+    <tableColumn id="2" name="Column2" dataDxfId="12"/>
+    <tableColumn id="3" name="Column3" dataDxfId="11"/>
+    <tableColumn id="4" name="Column4" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8DD938C4-A7E4-47A2-A7CE-B76669E0431B}" name="OptionDataToChartLO" displayName="OptionDataToChartLO" ref="AE2:AG10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="AE2:AG10" xr:uid="{BECCF860-C909-4D15-A2B3-9D528DC30032}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="StockDataToChartLO" displayName="StockDataToChartLO" ref="AA2:AC8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="AA2:AC8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4914CE95-2984-43E7-B0D3-6546BEE26836}" name="Column1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{66BF0196-7668-4D43-A27F-922F4C8347DB}" name="Column2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F97D307-894E-4C05-8748-F5AE621377BA}" name="Column3" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" name="Column3" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67324586-9888-43E8-86D4-A31246FF9A5C}" name="TransactionsLO" displayName="TransactionsLO" ref="B3:O6" totalsRowShown="0">
-  <autoFilter ref="B3:O6" xr:uid="{3D4F258D-A120-4B83-B740-16BAF58374EC}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F4039C34-0E06-4B8A-8DB2-2F3013E258B2}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{38CA71D5-C04B-4DF0-B3AC-0EDF43BCA42D}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{6601DC74-6CC6-4189-881A-04EEA79A445B}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{E73852EE-00CE-4F73-8502-FDA0BD1298ED}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{105EA99D-1A1D-4779-83F7-B7090A5978EF}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{23A775A0-0FCC-4ED5-BCE3-04BD2716DF90}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{9FE0DEBD-23A0-4C2C-A3C5-ECB3DB5EA0FB}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{99BCFEF0-2BCB-4D45-B618-AC6FEAAE4806}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{9543DFE5-2685-491E-83D6-DB25C2EB6FFA}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{A61C2B09-9565-433C-8662-3A7B3F7A28B9}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{6A8DBA0E-54F9-4562-9AAC-BE5703D18DC5}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{2D382A2B-61FE-4318-B49E-C954CC6ABE5D}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{C0CDDD23-B39C-437E-BFBA-B8CD075A041D}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{00EC7B6A-8CB4-42B1-9243-C7022F4B28E9}" name="Column14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="OptionDataToChartLO" displayName="OptionDataToChartLO" ref="AE2:AG10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="AE2:AG10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" name="Column3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2EDDB33A-FDB9-4DF3-9795-E106FB1B61DA}" name="ConfirmationTicketsLO" displayName="ConfirmationTicketsLO" ref="Q3:Z6" totalsRowShown="0">
-  <autoFilter ref="Q3:Z6" xr:uid="{2CDCEF7C-471F-46EB-8A3F-F10AE7E110AC}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{30CCB1CC-59C2-48EA-A5DF-ACE7BD746B07}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{EFEEE46E-B1E4-46ED-A8EC-763C173BC4BC}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{3E267D69-9BE4-4C32-92FA-4E8D85164B97}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{F4C5F5EE-100E-4F44-90AF-7E348BD1D4F4}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{EF2A6F63-0985-41C0-8959-38658D098355}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{C2DCEFE2-D770-4B16-8DED-B5A3B8863D2B}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{70B59D6C-5675-44EF-AB0E-BF7D3AA062FC}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{EDF164C2-3981-4CAE-BF4F-317D9B01EFB7}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{63720708-E4FD-41CF-ADBD-E377D51A0128}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{F4DFF438-46D0-4053-A076-DEFFFFA18659}" name="Column10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TransactionsLO" displayName="TransactionsLO" ref="B3:O6" totalsRowShown="0">
+  <autoFilter ref="B3:O6"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8595ABFA-1D27-4178-8013-EC07E2375806}" name="TransactionCostsLO" displayName="TransactionCostsLO" ref="B2:D5" totalsRowShown="0">
-  <autoFilter ref="B2:D5" xr:uid="{06A7308A-850E-4EED-9BFD-16B85EACC566}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C9EF745-37B8-4AEE-A023-EE512E3E4040}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{EDF2CE4B-B852-4CFF-9AED-C4895370384F}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{ECFE34CE-21A1-4CAD-829E-BA3BB1DF6A5B}" name="Column3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ConfirmationTicketsLO" displayName="ConfirmationTicketsLO" ref="Q3:Z6" totalsRowShown="0">
+  <autoFilter ref="Q3:Z6"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{35EFC960-BDC8-4873-A080-72BE9AB26C6D}" name="EnvVariablesLO" displayName="EnvVariablesLO" ref="F2:G5" totalsRowShown="0">
-  <autoFilter ref="F2:G5" xr:uid="{D1DFC91D-8B04-402A-A8BB-2CDBC0AB6CB9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C062548E-BD79-4ED4-BD95-375AEE7DC52E}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{D04736BC-63A6-4E7E-92F7-A93F87067F77}" name="Column2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TransactionCostsLO" displayName="TransactionCostsLO" ref="B2:D5" totalsRowShown="0">
+  <autoFilter ref="B2:D5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FC8D32D-A941-4F8F-BF94-1020E08E0A80}" name="OptionsLO" displayName="OptionsLO" ref="I2:P6" totalsRowShown="0">
-  <autoFilter ref="I2:P6" xr:uid="{51A5092F-270F-4C7A-A6AB-27C1D2EA55E1}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{83F83D57-6899-4D83-A018-9F451B3E1B02}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{3216A292-225B-48A2-84A2-EE5E5E4B55B0}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{BBBC0E6F-5CC8-4B84-883B-173E5CE83F9E}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{9CC3F862-B4BD-46FE-93B7-8C6FF94FF9F5}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{789ED0AE-578C-4CC1-AC0D-30AA04C2ABA9}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{89AAF099-08A4-4C46-A24A-B0A9145D6676}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{CFC91397-2640-42FC-BC03-30CFC9B62E89}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{510C4CCB-627A-475C-A10A-1D89423C80CB}" name="Column8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="EnvVariablesLO" displayName="EnvVariablesLO" ref="F2:G5" totalsRowShown="0">
+  <autoFilter ref="F2:G5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4517,60 +5550,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93EB804-63BA-469A-B1E5-B3045481F32F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="5"/>
     <col min="7" max="7" width="13" style="5" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="5"/>
-    <col min="10" max="10" width="8.36328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" style="5" customWidth="1"/>
-    <col min="12" max="16" width="8.7265625" style="5"/>
-    <col min="17" max="21" width="10.26953125" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="5"/>
+    <col min="8" max="9" width="8.7109375" style="5"/>
+    <col min="10" max="10" width="8.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="5" customWidth="1"/>
+    <col min="12" max="16" width="8.7109375" style="5"/>
+    <col min="17" max="21" width="10.28515625" style="5" customWidth="1"/>
+    <col min="22" max="47" width="8.7109375" style="5"/>
+    <col min="48" max="51" width="11" style="5" customWidth="1"/>
+    <col min="52" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:51" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="I2" s="23" t="s">
         <v>51</v>
       </c>
@@ -4594,25 +5629,25 @@
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
     </row>
-    <row r="3" spans="1:24" ht="9.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+    <row r="3" spans="1:51" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="9"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -4623,15 +5658,15 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
@@ -4667,8 +5702,20 @@
       <c r="O4" s="29">
         <v>0</v>
       </c>
+      <c r="AV4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -4703,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -4738,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" s="10"/>
       <c r="E7" s="8" t="s">
@@ -4769,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -4800,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -4835,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -4870,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -4902,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -4937,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -4972,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -5003,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="C15" s="10"/>
       <c r="E15" s="8" t="s">
@@ -5034,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -5055,7 +6102,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +6123,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -5091,13 +6138,13 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -5109,7 +6156,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -5125,7 +6172,11 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="40"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -5134,7 +6185,9 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -5143,7 +6196,9 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -5152,7 +6207,9 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -5161,7 +6218,9 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -5170,7 +6229,9 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -5179,7 +6240,9 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -5188,7 +6251,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -5197,7 +6260,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -5206,7 +6269,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -5215,7 +6278,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -5224,7 +6287,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -5233,7 +6296,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -5242,7 +6305,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -5253,14 +6316,15 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="7">
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="8">
     <mergeCell ref="R2:T3"/>
     <mergeCell ref="V2:X3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="F21:G27"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5269,257 +6333,107 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper15">
+        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>15</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper15"/>
+        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId6" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>577850</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId6" name="_ActiveXWrapper6"/>
+        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId8" name="_ActiveXWrapper5">
+        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper12">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>127000</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId8" name="_ActiveXWrapper5"/>
+        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>641350</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>31750</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId12" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>539750</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId12" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId14" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>203200</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId14" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>31750</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId18" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId18" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>6350</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId22" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>177800</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>565150</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId22" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId23" name="_ActiveXWrapper10">
+        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
@@ -5532,126 +6446,277 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId23" name="_ActiveXWrapper10"/>
+        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId24" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>615950</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>6350</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId24" name="_ActiveXWrapper11"/>
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId25" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId26">
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>184150</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId25" name="_ActiveXWrapper12"/>
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId27" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
+        <control shapeId="1034" r:id="rId18" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>107950</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId27" name="_ActiveXWrapper13"/>
+        <control shapeId="1034" r:id="rId18" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId29" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+        <control shapeId="1025" r:id="rId19" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>508000</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId29" name="_ActiveXWrapper14"/>
+        <control shapeId="1025" r:id="rId19" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId21" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId21" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId23" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId23" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId25" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId26">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId25" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId27" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId28">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId27" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId29" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId30">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId29" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId31" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId31" name="_ActiveXWrapper15"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
-  <tableParts count="2">
-    <tablePart r:id="rId30"/>
-    <tablePart r:id="rId31"/>
+  <tableParts count="3">
+    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3949EFFC-9129-4F88-8BE3-DA9AFD287EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="AA2:AG2"/>
   <sheetViews>
@@ -5659,14 +6724,14 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7265625" style="20"/>
-    <col min="27" max="31" width="10.26953125" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="26" width="8.7109375" style="20"/>
+    <col min="27" max="31" width="10.28515625" style="20" customWidth="1"/>
+    <col min="32" max="16384" width="8.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="27:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA2" s="20" t="s">
         <v>1</v>
       </c>
@@ -5696,43 +6761,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="5122" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>431800</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>120650</xdr:rowOff>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>298450</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>368300</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>139700</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>234950</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -5741,7 +6781,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="5122" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5753,20 +6818,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D1B2E8-888A-4566-9E1B-2284BC0F622A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="17" max="25" width="10.26953125" customWidth="1"/>
-    <col min="26" max="26" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="17" max="25" width="10.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
@@ -5779,7 +6844,7 @@
       <c r="S1" s="38"/>
       <c r="T1" s="38"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -5789,7 +6854,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -5880,7 +6945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A626CC-49F6-4ED7-BDC4-359E83BE4AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G2"/>
   <sheetViews>
@@ -5888,12 +6953,12 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="10.26953125" customWidth="1"/>
+    <col min="2" max="6" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -5901,7 +6966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5931,7 +6996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC8C76A-5B85-4F34-B7D6-7354B2B6762F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:T6"/>
   <sheetViews>
@@ -5939,18 +7004,18 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="16" width="10.26953125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="1"/>
-    <col min="18" max="20" width="10.26953125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="16" width="10.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="1"/>
+    <col min="18" max="20" width="10.28515625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5961,7 +7026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -6014,7 +7079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -6033,7 +7098,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -6052,7 +7117,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -6071,7 +7136,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -6107,7 +7172,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAD5D764-C0C2-4384-BCB7-3F92C902A13D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DF29AB-4661-4A47-BEB2-C328AADBE2AB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>Stock Market</t>
   </si>
@@ -249,6 +249,27 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>W*Delta</t>
+  </si>
+  <si>
+    <t>W*Gamma</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Weights</t>
   </si>
 </sst>
 </file>
@@ -496,14 +517,14 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,23 +535,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,11 +1142,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$AV$4</c:f>
+              <c:f>Dashboard!$AS$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Column1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,10 +1165,31 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$AV$5:$AV$11</c:f>
+              <c:f>Dashboard!$AS$5:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1158,11 +1200,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$AW$4</c:f>
+              <c:f>Dashboard!$AT$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Column2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1181,10 +1223,31 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$AW$5:$AW$11</c:f>
+              <c:f>Dashboard!$AT$5:$AT$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1195,11 +1258,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$AX$4</c:f>
+              <c:f>Dashboard!$AU$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Column3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1218,10 +1281,31 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$AX$5:$AX$11</c:f>
+              <c:f>Dashboard!$AU$5:$AU$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1232,11 +1316,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dashboard!$AY$4</c:f>
+              <c:f>Dashboard!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Column4</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1255,10 +1339,13 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$AY$5:$AY$11</c:f>
+              <c:f>Dashboard!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1273,11 +1360,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="421373240"/>
-        <c:axId val="421369712"/>
+        <c:axId val="418214960"/>
+        <c:axId val="418212216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="421373240"/>
+        <c:axId val="418214960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421369712"/>
+        <c:crossAx val="418212216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421369712"/>
+        <c:axId val="418212216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421373240"/>
+        <c:crossAx val="418214960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,11 +1731,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="423037936"/>
-        <c:axId val="423035976"/>
+        <c:axId val="420314808"/>
+        <c:axId val="420311672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="423037936"/>
+        <c:axId val="420314808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423035976"/>
+        <c:crossAx val="420311672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423035976"/>
+        <c:axId val="420311672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +1836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423037936"/>
+        <c:crossAx val="420314808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2058,11 +2145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="423038328"/>
-        <c:axId val="423035584"/>
+        <c:axId val="420310888"/>
+        <c:axId val="420315200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="423038328"/>
+        <c:axId val="420310888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423035584"/>
+        <c:crossAx val="420315200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +2199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423035584"/>
+        <c:axId val="420315200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423038328"/>
+        <c:crossAx val="420310888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5153,8 +5240,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="TELO" displayName="TELO" ref="AV4:AY11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="AV4:AY11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="TELO" displayName="TELO" ref="AX2:BA9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="AX2:BA9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Column1" dataDxfId="13"/>
     <tableColumn id="2" name="Column2" dataDxfId="12"/>
@@ -5552,10 +5639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:BA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="AH31" workbookViewId="0">
+      <selection activeCell="AR35" sqref="AR35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,40 +5659,42 @@
     <col min="11" max="11" width="17.140625" style="5" customWidth="1"/>
     <col min="12" max="16" width="8.7109375" style="5"/>
     <col min="17" max="21" width="10.28515625" style="5" customWidth="1"/>
-    <col min="22" max="47" width="8.7109375" style="5"/>
+    <col min="22" max="38" width="8.7109375" style="5"/>
+    <col min="39" max="45" width="11" style="5" customWidth="1"/>
+    <col min="46" max="47" width="8.7109375" style="5"/>
     <col min="48" max="51" width="11" style="5" customWidth="1"/>
     <col min="52" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:53" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
-    <row r="2" spans="1:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:53" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="E2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="I2" s="23" t="s">
         <v>51</v>
       </c>
@@ -5640,14 +5729,53 @@
       </c>
       <c r="W2" s="35"/>
       <c r="X2" s="35"/>
+      <c r="AM2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+    <row r="3" spans="1:53" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="9"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -5666,7 +5794,7 @@
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
@@ -5702,20 +5830,26 @@
       <c r="O4" s="29">
         <v>0</v>
       </c>
-      <c r="AV4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="5" t="s">
-        <v>4</v>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25">
+        <f>AQ4*AN4</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="25">
+        <f>AQ4*AO4</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="25">
+        <f>AP4*AQ4</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -5749,8 +5883,26 @@
       <c r="O5" s="29">
         <v>0</v>
       </c>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25">
+        <f t="shared" ref="AS5:AS35" si="0">AQ5*AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="25">
+        <f t="shared" ref="AT5:AT35" si="1">AQ5*AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="25">
+        <f t="shared" ref="AU5:AU35" si="2">AP5*AQ5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -5784,8 +5936,26 @@
       <c r="O6" s="29">
         <v>0</v>
       </c>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" s="10"/>
       <c r="E7" s="8" t="s">
@@ -5815,8 +5985,26 @@
       <c r="O7" s="29">
         <v>0</v>
       </c>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -5846,8 +6034,26 @@
       <c r="O8" s="29">
         <v>0</v>
       </c>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -5881,8 +6087,26 @@
       <c r="O9" s="29">
         <v>0</v>
       </c>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -5916,8 +6140,26 @@
       <c r="O10" s="29">
         <v>0</v>
       </c>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
@@ -5948,8 +6190,26 @@
       <c r="O11" s="29">
         <v>0</v>
       </c>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -5983,8 +6243,26 @@
       <c r="O12" s="29">
         <v>0</v>
       </c>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
@@ -6018,8 +6296,26 @@
       <c r="O13" s="29">
         <v>0</v>
       </c>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -6049,8 +6345,26 @@
       <c r="O14" s="29">
         <v>0</v>
       </c>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="C15" s="10"/>
       <c r="E15" s="8" t="s">
@@ -6080,8 +6394,26 @@
       <c r="O15" s="29">
         <v>0</v>
       </c>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -6101,8 +6433,26 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -6122,8 +6472,26 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -6137,8 +6505,26 @@
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>40</v>
       </c>
@@ -6155,8 +6541,26 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6171,12 +6575,30 @@
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="39" t="s">
+    <row r="21" spans="1:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="31"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -6184,10 +6606,28 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+    <row r="22" spans="1:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -6195,10 +6635,28 @@
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -6206,10 +6664,28 @@
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -6217,10 +6693,28 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -6228,10 +6722,28 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -6239,10 +6751,28 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -6250,8 +6780,26 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -6259,8 +6807,26 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -6268,8 +6834,26 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -6277,8 +6861,20 @@
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
+      <c r="AS30" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT30" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -6286,8 +6882,20 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
+      <c r="AS31" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -6295,8 +6903,20 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
+      <c r="AS32" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT32" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:47" x14ac:dyDescent="0.25">
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -6304,8 +6924,20 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
+      <c r="AS33" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:47" x14ac:dyDescent="0.25">
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -6313,18 +6945,44 @@
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
+      <c r="AS34" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU34" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="AS35" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="8">
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="E2:G3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="F21:G27"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="E2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6832,27 +7490,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="Q1" s="38" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="Q1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -7172,7 +7830,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DF29AB-4661-4A47-BEB2-C328AADBE2AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645EC682-A8E1-4B90-8BC8-58E430574C84}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -388,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -517,6 +523,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,17 +550,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -553,6 +559,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,6 +837,108 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="13A3AB2DF190D214B5019698171B1D64DD8681"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2037"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="11165"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1818A3A8A1BA671426E1B206184EE4BFD9C941"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1454BFB5E1D645141091B73211A51887DA7C71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BBCC80AD153C4144421923510F58B2602C731"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A18C20641A72C1401B18C5C1A90A56B754661"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12486F748194FB14E891ADBE158DFF48F524B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -845,7 +954,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C2F7952D1F41C14E781A8601CF9C77B05EF91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C443C73C2139424511282E223BA9D59E01A72"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9DF148E8B9C34E949E39BB769715A2AAD5B239"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84E0CECCD8B11684AA8882828679A4649A6238"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="475CE45464FC5C44EC1491CD403B214C11B264"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A737A9013AE31342143AAC332FEB1D70166A3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -862,216 +1073,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A737A9013AE31342143AAC332FEB1D70166A3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="475CE45464FC5C44EC1491CD403B214C11B264"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84E0CECCD8B11684AA8882828679A4649A6238"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9DF148E8B9C34E949E39BB769715A2AAD5B239"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="13A3AB2DF190D214B5019698171B1D64DD8681"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2037"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6403"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C443C73C2139424511282E223BA9D59E01A72"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C2F7952D1F41C14E781A8601CF9C77B05EF91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12486F748194FB14E891ADBE158DFF48F524B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1376"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A18C20641A72C1401B18C5C1A90A56B754661"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1535"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BBCC80AD153C4144421923510F58B2602C731"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1454BFB5E1D645141091B73211A51887DA7C71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1818A3A8A1BA671426E1B206184EE4BFD9C941"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2963"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B41DF30A103CB1433018E231B7416FB5ED861"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B9CFAB0817D4614E371BA261C76ECA0C6DA41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1105,7 +1112,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B9CFAB0817D4614E371BA261C76ECA0C6DA41"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B41DF30A103CB1433018E231B7416FB5ED861"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1360,11 +1367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="418214960"/>
-        <c:axId val="418212216"/>
+        <c:axId val="424022376"/>
+        <c:axId val="424027472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="418214960"/>
+        <c:axId val="424022376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418212216"/>
+        <c:crossAx val="424027472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418212216"/>
+        <c:axId val="424027472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418214960"/>
+        <c:crossAx val="424022376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,11 +1738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="420314808"/>
-        <c:axId val="420311672"/>
+        <c:axId val="424024336"/>
+        <c:axId val="424410080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420314808"/>
+        <c:axId val="424024336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420311672"/>
+        <c:crossAx val="424410080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420311672"/>
+        <c:axId val="424410080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420314808"/>
+        <c:crossAx val="424024336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2145,11 +2152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420310888"/>
-        <c:axId val="420315200"/>
+        <c:axId val="424410472"/>
+        <c:axId val="424409296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420310888"/>
+        <c:axId val="424410472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420315200"/>
+        <c:crossAx val="424409296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2199,7 +2206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420315200"/>
+        <c:axId val="424409296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420310888"/>
+        <c:crossAx val="424410472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4030,7 +4037,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4092,7 +4099,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4154,7 +4161,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4216,7 +4223,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4278,7 +4285,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4340,7 +4347,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4402,7 +4409,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4464,7 +4471,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4526,7 +4533,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4588,7 +4595,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4650,7 +4657,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4712,7 +4719,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4774,7 +4781,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4836,7 +4843,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4879,16 +4886,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4898,7 +4905,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB541D-4CF7-4DDA-B363-D444372BF1B1}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB541D-4CF7-4DDA-B363-D444372BF1B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4995,7 +5002,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001140000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5057,7 +5064,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002140000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5114,7 +5121,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5150,7 +5157,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5639,10 +5646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BA35"/>
+  <dimension ref="A1:BA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH31" workbookViewId="0">
-      <selection activeCell="AR35" sqref="AR35"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5667,34 +5674,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:53" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="E2" s="36" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="I2" s="23" t="s">
         <v>51</v>
       </c>
@@ -5718,17 +5725,17 @@
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
       <c r="AM2" s="25" t="s">
         <v>70</v>
       </c>
@@ -5770,12 +5777,12 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="9"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -5786,13 +5793,13 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6525,12 +6532,12 @@
       </c>
     </row>
     <row r="19" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -6595,10 +6602,10 @@
       </c>
     </row>
     <row r="21" spans="1:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="34"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -6626,8 +6633,8 @@
       </c>
     </row>
     <row r="22" spans="1:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -6655,8 +6662,8 @@
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -6684,8 +6691,8 @@
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -6713,8 +6720,8 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -6742,8 +6749,8 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -6771,8 +6778,8 @@
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -6972,17 +6979,467 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+    </row>
+    <row r="43" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+    </row>
+    <row r="44" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+    </row>
+    <row r="45" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+    </row>
+    <row r="46" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+    </row>
+    <row r="47" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+    </row>
+    <row r="48" spans="9:47" x14ac:dyDescent="0.25">
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+    </row>
+    <row r="60" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+    </row>
+    <row r="61" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+    </row>
+    <row r="62" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+    </row>
+    <row r="64" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+    </row>
+    <row r="65" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+    </row>
+    <row r="66" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+    </row>
+    <row r="67" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+    </row>
+    <row r="68" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+    </row>
+    <row r="69" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+    </row>
+    <row r="70" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+    </row>
+    <row r="71" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+    </row>
+    <row r="72" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+    </row>
+    <row r="73" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+    </row>
+    <row r="74" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+    </row>
+    <row r="75" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+    </row>
+    <row r="76" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+    </row>
+    <row r="77" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+    </row>
+    <row r="78" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+    </row>
+    <row r="79" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+    </row>
+    <row r="80" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+    </row>
+    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+    </row>
+    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="8">
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="E2:G3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="F21:G27"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="E2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6991,19 +7448,94 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper14">
+        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper15">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId6" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId6" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId8" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId8" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -7011,163 +7543,88 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper14"/>
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1027" r:id="rId12" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper13"/>
+        <control shapeId="1027" r:id="rId12" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="1026" r:id="rId14" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper12"/>
+        <control shapeId="1026" r:id="rId14" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper8"/>
+        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1034" r:id="rId18" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -7191,69 +7648,169 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId19" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId19" name="_ActiveXWrapper1"/>
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId21" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+        <control shapeId="1036" r:id="rId22" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId21" name="_ActiveXWrapper2"/>
+        <control shapeId="1036" r:id="rId22" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId23" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+        <control shapeId="1037" r:id="rId24" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId24" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId26" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId26" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId28" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId28" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId32" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -7261,107 +7818,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId23" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId25" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId26">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId25" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId27" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId28">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId27" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId29" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId30">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId29" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId31" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId31" name="_ActiveXWrapper15"/>
+        <control shapeId="1041" r:id="rId32" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7419,8 +7876,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="5121" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -7439,32 +7921,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5121" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="5122" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7830,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645EC682-A8E1-4B90-8BC8-58E430574C84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C42AF5D-D2DC-49A2-A98E-2ABBA9D5CB30}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -523,11 +523,18 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -547,19 +554,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,6 +837,108 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1E2A52455132D914AEE1AEF2144BD19AEA9CE1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6218"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="22AE137DF231F5242212B9B62458710E26B702"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A737A9013AE31342143AAC332FEB1D70166A3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="475CE45464FC5C44EC1491CD403B214C11B264"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84E0CECCD8B11684AA8882828679A4649A6238"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9DF148E8B9C34E949E39BB769715A2AAD5B239"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -852,7 +954,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C443C73C2139424511282E223BA9D59E01A72"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C2F7952D1F41C14E781A8601CF9C77B05EF91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12486F748194FB14E891ADBE158DFF48F524B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A18C20641A72C1401B18C5C1A90A56B754661"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BBCC80AD153C4144421923510F58B2602C731"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1454BFB5E1D645141091B73211A51887DA7C71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -869,216 +1073,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1454BFB5E1D645141091B73211A51887DA7C71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BBCC80AD153C4144421923510F58B2602C731"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="714"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A18C20641A72C1401B18C5C1A90A56B754661"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1535"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12486F748194FB14E891ADBE158DFF48F524B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1376"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1E2A52455132D914AEE1AEF2144BD19AEA9CE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6218"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C2F7952D1F41C14E781A8601CF9C77B05EF91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ListBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C443C73C2139424511282E223BA9D59E01A72"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4710"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="6773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9DF148E8B9C34E949E39BB769715A2AAD5B239"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="794"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84E0CECCD8B11684AA8882828679A4649A6238"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="475CE45464FC5C44EC1491CD403B214C11B264"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A737A9013AE31342143AAC332FEB1D70166A3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1429"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="22AE137DF231F5242212B9B62458710E26B702"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2990"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B9CFAB0817D4614E371BA261C76ECA0C6DA41"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B41DF30A103CB1433018E231B7416FB5ED861"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1112,7 +1112,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B41DF30A103CB1433018E231B7416FB5ED861"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B9CFAB0817D4614E371BA261C76ECA0C6DA41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1367,11 +1367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="424022376"/>
-        <c:axId val="424027472"/>
+        <c:axId val="450229984"/>
+        <c:axId val="450226456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="424022376"/>
+        <c:axId val="450229984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424027472"/>
+        <c:crossAx val="450226456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424027472"/>
+        <c:axId val="450226456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424022376"/>
+        <c:crossAx val="450229984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,11 +1738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="424024336"/>
-        <c:axId val="424410080"/>
+        <c:axId val="450735912"/>
+        <c:axId val="450737872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="424024336"/>
+        <c:axId val="450735912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424410080"/>
+        <c:crossAx val="450737872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424410080"/>
+        <c:axId val="450737872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424024336"/>
+        <c:crossAx val="450735912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2152,11 +2152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424410472"/>
-        <c:axId val="424409296"/>
+        <c:axId val="450739440"/>
+        <c:axId val="450736696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="424410472"/>
+        <c:axId val="450739440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424409296"/>
+        <c:crossAx val="450736696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2206,7 +2206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424409296"/>
+        <c:axId val="450736696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424410472"/>
+        <c:crossAx val="450739440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4037,7 +4037,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4099,7 +4099,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4161,7 +4161,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4223,7 +4223,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4285,7 +4285,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4347,7 +4347,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4409,7 +4409,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4471,7 +4471,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4533,7 +4533,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4595,7 +4595,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4657,7 +4657,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4719,7 +4719,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4781,7 +4781,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4843,7 +4843,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4905,7 +4905,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB541D-4CF7-4DDA-B363-D444372BF1B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38AB541D-4CF7-4DDA-B363-D444372BF1B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5002,7 +5002,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5064,7 +5064,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5121,7 +5121,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5157,7 +5157,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5648,8 +5648,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,34 +5674,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:53" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="I2" s="23" t="s">
         <v>51</v>
       </c>
@@ -5725,17 +5725,17 @@
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
       <c r="AM2" s="25" t="s">
         <v>70</v>
       </c>
@@ -5777,12 +5777,12 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="9"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -5793,13 +5793,13 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6532,12 +6532,12 @@
       </c>
     </row>
     <row r="19" spans="1:47" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -6602,10 +6602,10 @@
       </c>
     </row>
     <row r="21" spans="1:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="37"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -6633,8 +6633,8 @@
       </c>
     </row>
     <row r="22" spans="1:47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -6662,8 +6662,8 @@
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -6691,8 +6691,8 @@
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -6720,8 +6720,8 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -6749,8 +6749,8 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -6778,8 +6778,8 @@
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -6980,466 +6980,466 @@
       </c>
     </row>
     <row r="40" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
     </row>
     <row r="41" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
     </row>
     <row r="42" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
     </row>
     <row r="43" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
     </row>
     <row r="44" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
     </row>
     <row r="45" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
     </row>
     <row r="46" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
     </row>
     <row r="47" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
     </row>
     <row r="48" spans="9:47" x14ac:dyDescent="0.25">
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
     </row>
     <row r="49" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
     </row>
     <row r="50" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
     </row>
     <row r="54" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
     </row>
     <row r="56" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
     </row>
     <row r="57" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
     </row>
     <row r="58" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
     </row>
     <row r="60" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
     </row>
     <row r="61" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
     </row>
     <row r="62" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
     </row>
     <row r="63" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
     </row>
     <row r="65" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
     </row>
     <row r="66" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
     </row>
     <row r="67" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
     </row>
     <row r="68" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
     </row>
     <row r="69" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
     </row>
     <row r="70" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
     </row>
     <row r="71" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
     </row>
     <row r="72" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
     </row>
     <row r="73" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
     </row>
     <row r="74" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
     </row>
     <row r="75" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
     </row>
     <row r="76" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
     </row>
     <row r="77" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
     </row>
     <row r="78" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
     </row>
     <row r="79" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
     </row>
     <row r="80" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
     </row>
     <row r="81" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
     </row>
     <row r="82" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
     </row>
     <row r="83" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
     </row>
     <row r="84" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="8">
+    <mergeCell ref="F21:G27"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="R2:T3"/>
     <mergeCell ref="V2:X3"/>
     <mergeCell ref="E2:G3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="F21:G27"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7448,19 +7448,169 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper15">
+        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -7468,157 +7618,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId4" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId6" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId6" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId8" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId8" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId12" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId12" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId14" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId14" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7648,19 +7648,169 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper8">
+        <control shapeId="1025" r:id="rId20" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId20" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId22" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId22" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId24" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId24" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId26" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId26" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId30" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId30" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId32" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -7668,164 +7818,14 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId22" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId22" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId24" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId24" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId26" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId26" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId28" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId28" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId30" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId32" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId32" name="_ActiveXWrapper14"/>
+        <control shapeId="1042" r:id="rId32" name="_ActiveXWrapper15"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
   <tableParts count="3">
-    <tablePart r:id="rId33"/>
     <tablePart r:id="rId34"/>
     <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7876,8 +7876,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="5122" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -7896,32 +7921,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="5121" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7947,27 +7947,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="Q1" s="41" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="Q1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C42AF5D-D2DC-49A2-A98E-2ABBA9D5CB30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CCD4BA-1B09-4030-AD93-5DF572718C12}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50CCD4BA-1B09-4030-AD93-5DF572718C12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F7367A-A6B0-4FCB-AD09-C1EC56F8B09E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F7367A-A6B0-4FCB-AD09-C1EC56F8B09E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A89C35-3BC4-4DA3-AA14-8B0BD1E564C9}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A89C35-3BC4-4DA3-AA14-8B0BD1E564C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EDABFF1-E795-4705-B314-47C24D379829}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EDABFF1-E795-4705-B314-47C24D379829}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63BCBD84-2E8A-4921-A70F-9AC4310DD219}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63BCBD84-2E8A-4921-A70F-9AC4310DD219}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D293B03-C6FF-48AD-B887-900C206EA9AB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D293B03-C6FF-48AD-B887-900C206EA9AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC9D1DD-C009-43CF-8240-04B5AE8E6753}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC9D1DD-C009-43CF-8240-04B5AE8E6753}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D0AB-79C1-406E-85E8-A586BF5C0827}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A82D0AB-79C1-406E-85E8-A586BF5C0827}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB49B5D8-DB0A-464F-9AA5-2FAB24F324FB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
+++ b/SpartanTrader10/bin/Debug/SpartanTrader10.xlsx
@@ -8287,7 +8287,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB49B5D8-DB0A-464F-9AA5-2FAB24F324FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87889344-5241-4729-9833-B8671AD1B969}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>